--- a/Jupyter/logvisual/pandas_header_format.xlsx
+++ b/Jupyter/logvisual/pandas_header_format.xlsx
@@ -452,16 +452,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9201</v>
+        <v>27603</v>
       </c>
       <c r="C2">
-        <v>509</v>
+        <v>1527</v>
       </c>
       <c r="D2">
         <v>815</v>
       </c>
       <c r="E2">
-        <v>11.91</v>
+        <v>35.73</v>
       </c>
       <c r="F2">
         <v>11.91</v>
@@ -473,7 +473,7 @@
         <v>11.91</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
